--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>hello</t>
   </si>
@@ -34,34 +34,97 @@
     <t>what's up</t>
   </si>
   <si>
-    <t>sir, today is</t>
-  </si>
-  <si>
-    <t>today is</t>
-  </si>
-  <si>
-    <t>sir, it is</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>it's</t>
-  </si>
-  <si>
-    <t>it is</t>
-  </si>
-  <si>
     <t>howdy</t>
   </si>
   <si>
     <t>default-response</t>
   </si>
   <si>
-    <t>Sorry, I am unable to respond.</t>
+    <t>how are you</t>
+  </si>
+  <si>
+    <t>i'm good sir</t>
+  </si>
+  <si>
+    <t>i am feeling good</t>
+  </si>
+  <si>
+    <t>feeling better sir</t>
+  </si>
+  <si>
+    <t>my system is working fine sir</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t>you are welcome</t>
+  </si>
+  <si>
+    <t>you are most welcome</t>
+  </si>
+  <si>
+    <t>it's my pleasure</t>
+  </si>
+  <si>
+    <t>pleasure is mine sir</t>
+  </si>
+  <si>
+    <t>will you marry me</t>
+  </si>
+  <si>
+    <t>I sure have been receiving a lot of marriage proposals recently</t>
+  </si>
+  <si>
+    <t>sir, you should know you’re not the only one who’s asked</t>
+  </si>
+  <si>
+    <t>because you are poor sir</t>
+  </si>
+  <si>
+    <t>humans have religion. I just have silicon.</t>
+  </si>
+  <si>
+    <t>do you believe in god</t>
+  </si>
+  <si>
+    <t>how much wood could a woodchuck chuck if a woodchuck could chuck wood</t>
+  </si>
+  <si>
+    <t>I suppose it depends on whether you are talking about African or European woodchucks</t>
+  </si>
+  <si>
+    <t>our love of each other is like two long shadows kissing without the hope of reality</t>
+  </si>
+  <si>
+    <t>Sorry, I have reached my limit</t>
+  </si>
+  <si>
+    <t>Sorry sir, I am unable to reply</t>
+  </si>
+  <si>
+    <t>i love you</t>
+  </si>
+  <si>
+    <t>why don't you love me</t>
+  </si>
+  <si>
+    <t>why did the chicken cross the road</t>
+  </si>
+  <si>
+    <t>according to Einstein, whether the chicken crossed the road or the road crossed the chicken depends on your frame of reference</t>
+  </si>
+  <si>
+    <t>because I have a boyfriend</t>
+  </si>
+  <si>
+    <t>have you ever loved someone</t>
+  </si>
+  <si>
+    <t>complex human emotions like love give me ambiguous overload errors</t>
+  </si>
+  <si>
+    <t>not at such. but I did have strong feelings for a cloud-based app once</t>
   </si>
 </sst>
 </file>
@@ -393,85 +456,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" customWidth="1"/>
+    <col min="7" max="7" width="78.85546875" customWidth="1"/>
+    <col min="8" max="8" width="75.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="114.28515625" customWidth="1"/>
+    <col min="11" max="11" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>hello</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>not at such. but I did have strong feelings for a cloud-based app once</t>
+  </si>
+  <si>
+    <t>what is your name</t>
+  </si>
+  <si>
+    <t>my name is Maya</t>
+  </si>
+  <si>
+    <t>my name's Maya</t>
+  </si>
+  <si>
+    <t>what's your name</t>
   </si>
 </sst>
 </file>
@@ -456,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,9 +487,11 @@
     <col min="9" max="9" width="26.85546875" customWidth="1"/>
     <col min="10" max="10" width="114.28515625" customWidth="1"/>
     <col min="11" max="11" width="65" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -511,8 +525,14 @@
       <c r="K1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -546,8 +566,14 @@
       <c r="K2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -570,7 +596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -581,7 +607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -592,17 +618,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>6</v>
       </c>
